--- a/src/test/java/com/qa/testData/orangeHrm_inputData.xlsx
+++ b/src/test/java/com/qa/testData/orangeHrm_inputData.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335"/>
+    <workbookView windowWidth="18360" windowHeight="4883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
+    <sheet name="recruitmentSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="addCandidate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:B2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -26,6 +29,90 @@
   </si>
   <si>
     <t>hrm</t>
+  </si>
+  <si>
+    <t>jobtitle</t>
+  </si>
+  <si>
+    <t>vacency</t>
+  </si>
+  <si>
+    <t>hiringmanager</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CandidateName</t>
+  </si>
+  <si>
+    <t>modeOfApplication</t>
+  </si>
+  <si>
+    <t>dateOfApplicationYear</t>
+  </si>
+  <si>
+    <t>dateOfApplicationMonth</t>
+  </si>
+  <si>
+    <t>QA Lead</t>
+  </si>
+  <si>
+    <t>Senior QA Lead</t>
+  </si>
+  <si>
+    <t>Odis Adalwin</t>
+  </si>
+  <si>
+    <t>Application Initiated</t>
+  </si>
+  <si>
+    <t>Joe Root</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>selectActionn</t>
+  </si>
+  <si>
+    <t>vamsi</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>reddy</t>
+  </si>
+  <si>
+    <t>reddy@gmail.com</t>
+  </si>
+  <si>
+    <t>Junior Account Assistant</t>
+  </si>
+  <si>
+    <t>Shortlist</t>
   </si>
 </sst>
 </file>
@@ -33,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +136,43 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -56,7 +180,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,26 +201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,6 +226,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -117,14 +249,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -139,51 +263,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -200,61 +287,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,37 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,73 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +478,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,49 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,153 +583,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +1056,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -992,4 +1082,156 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="18.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="20.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="19.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>8309579519</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="reddy@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>